--- a/input/TestCases/US-EN-Storelocator.xlsx
+++ b/input/TestCases/US-EN-Storelocator.xlsx
@@ -82,9 +82,6 @@
     <t>TC_004</t>
   </si>
   <si>
-    <t>VerifyClickEventCall</t>
-  </si>
-  <si>
     <t>Storelocator</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>StorelocatorResults</t>
+  </si>
+  <si>
+    <t>VERIFYEVENT</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:IV9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,12 +755,11 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
@@ -768,17 +767,17 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -787,18 +786,17 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
@@ -806,110 +804,112 @@
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/input/TestCases/US-EN-Storelocator.xlsx
+++ b/input/TestCases/US-EN-Storelocator.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="120" windowWidth="20520" windowHeight="10740" tabRatio="907"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17040" windowHeight="3960" tabRatio="907"/>
   </bookViews>
   <sheets>
     <sheet name="TestScript" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -25,9 +26,6 @@
     <t>ACTION</t>
   </si>
   <si>
-    <t>PAGE/ATTRIBUTES</t>
-  </si>
-  <si>
     <t>OBJECT</t>
   </si>
   <si>
@@ -46,9 +44,6 @@
     <t>Launch</t>
   </si>
   <si>
-    <t>Continue</t>
-  </si>
-  <si>
     <t>http://www.dove.com/us/en/washing-and-bathing/beauty-bar/sensitive-skin-beauty-bar.html</t>
   </si>
   <si>
@@ -94,79 +89,13 @@
     <t>storefooter</t>
   </si>
   <si>
-    <t>Step-6</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>Storelocatorfooter</t>
-  </si>
-  <si>
-    <t>Step-7</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>zipcode1</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>Step-8</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>dropdown1</t>
-  </si>
-  <si>
-    <t>Washing and Bathing</t>
-  </si>
-  <si>
-    <t>Step-9</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>dropdown2</t>
-  </si>
-  <si>
-    <t>Beauty Bar</t>
-  </si>
-  <si>
-    <t>Step-10</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>Sensitive Skin Beauty Bar</t>
-  </si>
-  <si>
-    <t>Step-11</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>StorelocatorResults</t>
-  </si>
-  <si>
     <t>VERIFYEVENT</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -646,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -658,14 +587,13 @@
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -684,229 +612,110 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+    <row r="4" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10001</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="5" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10001</v>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
